--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P27_trail3 Features.xlsx
@@ -2791,7 +2791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,29 +2802,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2845,115 +2843,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2970,72 +2958,66 @@
         <v>5.324371098135593e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.739078730838299</v>
+        <v>4.199948255852578e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.792074174652132</v>
+        <v>2.265856982203368e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.199948255852578e-07</v>
+        <v>-0.1157642564397066</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.265856982203368e-06</v>
+        <v>0.5167726642981733</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1157642564397066</v>
+        <v>0.2796634605245377</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.5167726642981733</v>
+        <v>1.577910820481955</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2796634605245377</v>
+        <v>1.484109489148961</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.48861505950201</v>
+        <v>3.780071564580813</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.484109489148961</v>
+        <v>4.998060001331374e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.780071564580813</v>
+        <v>35566740.19261324</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.998060001331374e-15</v>
+        <v>3.009656547280023e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>35566740.19261324</v>
+        <v>6.322510954893048</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.009656547280023e-06</v>
+        <v>0.0001196485490720565</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.322510954893048</v>
+        <v>7.859008749982224</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001196485490720565</v>
+        <v>1.324815798382175</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.859008749982224</v>
+        <v>0.007389975202248965</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.324815798382175</v>
+        <v>3.016399150154617</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007389975202248965</v>
+        <v>0.9466037038921141</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.016399150154617</v>
+        <v>1.869718738758657</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9466037038921141</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.869718738758657</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.214671590173809</v>
       </c>
     </row>
@@ -3050,72 +3032,66 @@
         <v>4.241962294024036e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1249918047274488</v>
+        <v>2.634951966649137e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.5637757421449909</v>
+        <v>2.260911495618433e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.634951966649137e-07</v>
+        <v>-0.09205663942511814</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.260911495618433e-06</v>
+        <v>0.4554436641626142</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09205663942511814</v>
+        <v>0.2152948497225174</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4554436641626142</v>
+        <v>1.580479873050573</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.2152948497225174</v>
+        <v>1.467699993289084</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.486814392710049</v>
+        <v>3.871538158111927</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.467699993289084</v>
+        <v>4.764687493714685e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.871538158111927</v>
+        <v>37647694.74837618</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.764687493714685e-15</v>
+        <v>2.866289769696853e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>37647694.74837618</v>
+        <v>6.753224672719889</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.866289769696853e-06</v>
+        <v>0.0001262516839713666</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.753224672719889</v>
+        <v>8.048420592150901</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001262516839713666</v>
+        <v>1.402560944406161</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.048420592150901</v>
+        <v>0.008178214678792903</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.402560944406161</v>
+        <v>3.017024667257695</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008178214678792903</v>
+        <v>0.9467910687843136</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.017024667257695</v>
+        <v>1.879003809791028</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9467910687843136</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.879003809791028</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.204241725235639</v>
       </c>
     </row>
@@ -3130,72 +3106,66 @@
         <v>3.993618647826303e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2599034388598445</v>
+        <v>1.593921193470891e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5039897987902537</v>
+        <v>2.257789609508785e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.593921193470891e-07</v>
+        <v>-0.06199775659882534</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.257789609508785e-06</v>
+        <v>0.3574316736961015</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06199775659882534</v>
+        <v>0.131321457029249</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3574316736961015</v>
+        <v>1.58376399141823</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.131321457029249</v>
+        <v>1.503051368079396</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.491692758900699</v>
+        <v>3.93120372911483</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.503051368079396</v>
+        <v>4.621153634747235e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.93120372911483</v>
+        <v>38674333.50763616</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.621153634747235e-15</v>
+        <v>2.788480767998066e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>38674333.50763616</v>
+        <v>6.911878310029935</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.788480767998066e-06</v>
+        <v>0.0001286161125405992</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>6.911878310029935</v>
+        <v>7.586028380623298</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001286161125405992</v>
+        <v>1.415411451931816</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.586028380623298</v>
+        <v>0.007401577741374961</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.415411451931816</v>
+        <v>3.062519746150787</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007401577741374961</v>
+        <v>0.9473181751295328</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.062519746150787</v>
+        <v>1.841560528032236</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9473181751295328</v>
+        <v>22</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.841560528032236</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1924998518868065</v>
       </c>
     </row>
@@ -3210,72 +3180,66 @@
         <v>4.071211268014624e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2478115099660448</v>
+        <v>1.605401073226987e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5616489858832177</v>
+        <v>2.255751395433847e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.605401073226987e-07</v>
+        <v>-0.04202726547444082</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.255751395433847e-06</v>
+        <v>0.2974121413793073</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04202726547444082</v>
+        <v>0.09014737366470336</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2974121413793073</v>
+        <v>1.575275527179658</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09014737366470336</v>
+        <v>1.486722503468227</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.485777489291944</v>
+        <v>3.933427795245028</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.486722503468227</v>
+        <v>4.61592926244018e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.933427795245028</v>
+        <v>37656877.19389177</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.61592926244018e-15</v>
+        <v>2.82141991925354e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>37656877.19389177</v>
+        <v>6.545574177663204</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.82141991925354e-06</v>
+        <v>0.0001273973737157376</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.545574177663204</v>
+        <v>7.518995085839821</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001273973737157376</v>
+        <v>1.30674475881252</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.518995085839821</v>
+        <v>0.007202447098917759</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.30674475881252</v>
+        <v>3.058361433145625</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007202447098917759</v>
+        <v>0.9460166279249469</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.058361433145625</v>
+        <v>1.844564454130638</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9460166279249469</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.844564454130638</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1832951359545635</v>
       </c>
     </row>
@@ -3290,72 +3254,66 @@
         <v>4.230960215932396e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.272322467424701</v>
+        <v>1.729127639459798e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6090387092415859</v>
+        <v>2.254181397050777e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.729127639459798e-07</v>
+        <v>-0.03602073129586137</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.254181397050777e-06</v>
+        <v>0.2785208190880402</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03602073129586137</v>
+        <v>0.0788648171428358</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2785208190880402</v>
+        <v>1.576644338068485</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0788648171428358</v>
+        <v>1.468073704551509</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.488853205834042</v>
+        <v>4.065191783426018</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.468073704551509</v>
+        <v>4.32154889717469e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.065191783426018</v>
+        <v>39603077.17481419</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.32154889717469e-15</v>
+        <v>2.673851171853074e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>39603077.17481419</v>
+        <v>6.777933373899064</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.673851171853074e-06</v>
+        <v>0.000124779577826166</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.777933373899064</v>
+        <v>8.530361879123587</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000124779577826166</v>
+        <v>1.142589902859213</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.530361879123587</v>
+        <v>0.009079844747012542</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.142589902859213</v>
+        <v>2.92533559604008</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009079844747012542</v>
+        <v>0.946182921438534</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.92533559604008</v>
+        <v>1.894012733932906</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.946182921438534</v>
+        <v>22</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.894012733932906</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1927805826445392</v>
       </c>
     </row>
@@ -3370,72 +3328,66 @@
         <v>4.422534284529076e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3234659902757397</v>
+        <v>1.842283271621998e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6054677083538964</v>
+        <v>2.252540098481483e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.842283271621998e-07</v>
+        <v>-0.04127034407087792</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.252540098481483e-06</v>
+        <v>0.2659698064854285</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04127034407087792</v>
+        <v>0.07242933123665712</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2659698064854285</v>
+        <v>1.593055090128825</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07242933123665712</v>
+        <v>1.588748187138413</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.513987971801956</v>
+        <v>4.085484510827823</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.588748187138413</v>
+        <v>4.278724982854884e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.085484510827823</v>
+        <v>39752701.84864552</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.278724982854884e-15</v>
+        <v>2.678279772968375e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>39752701.84864552</v>
+        <v>6.761571981607086</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.678279772968375e-06</v>
+        <v>0.0001262983408881953</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.761571981607086</v>
+        <v>8.416534176445992</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001262983408881953</v>
+        <v>1.152652663879294</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.416534176445992</v>
+        <v>0.008946727876475795</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.152652663879294</v>
+        <v>2.915625971357493</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008946727876475795</v>
+        <v>0.9469380153257962</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.915625971357493</v>
+        <v>1.885120922954404</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9469380153257962</v>
+        <v>19</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.885120922954404</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1946851720785386</v>
       </c>
     </row>
@@ -3450,72 +3402,66 @@
         <v>4.634032423568495e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3683784007593278</v>
+        <v>1.944605727616322e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5676073114134073</v>
+        <v>2.250455207866286e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.944605727616322e-07</v>
+        <v>-0.05093302823532944</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.250455207866286e-06</v>
+        <v>0.2458669681579663</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05093302823532944</v>
+        <v>0.06302364244831785</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2458669681579663</v>
+        <v>1.594139847975359</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06302364244831785</v>
+        <v>1.528985397486177</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.516596060781393</v>
+        <v>4.07252191160343</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.528985397486177</v>
+        <v>4.306006194215162e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.07252191160343</v>
+        <v>39119106.50994501</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.306006194215162e-15</v>
+        <v>2.713804816153146e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>39119106.50994501</v>
+        <v>6.589500630786735</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.713804816153146e-06</v>
+        <v>0.0001305732782911649</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6.589500630786735</v>
+        <v>7.754155421376741</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001305732782911649</v>
+        <v>1.279462128031883</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.754155421376741</v>
+        <v>0.007850969880414234</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.279462128031883</v>
+        <v>3.004893548269076</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007850969880414234</v>
+        <v>0.9481685029911818</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.004893548269076</v>
+        <v>1.862632348741617</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9481685029911818</v>
+        <v>27</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.862632348741617</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1864821749213322</v>
       </c>
     </row>
@@ -3530,72 +3476,66 @@
         <v>4.840006327817313e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4098323512946848</v>
+        <v>2.044063220166171e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.4898060330224197</v>
+        <v>2.247813506010449e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.044063220166171e-07</v>
+        <v>-0.0599614675737824</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.247813506010449e-06</v>
+        <v>0.2263829668240242</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0599614675737824</v>
+        <v>0.05483322971341288</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2263829668240242</v>
+        <v>1.614932639019214</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05483322971341288</v>
+        <v>1.619386002956293</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.541042730464799</v>
+        <v>4.077429554483248</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.619386002956293</v>
+        <v>4.295646911344139e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.077429554483248</v>
+        <v>38913129.87421266</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.295646911344139e-15</v>
+        <v>2.750217902769773e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>38913129.87421266</v>
+        <v>6.504604624677784</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.750217902769773e-06</v>
+        <v>0.0001427895792817491</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.504604624677784</v>
+        <v>7.889248590814878</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001427895792817491</v>
+        <v>1.352963463983451</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.889248590814878</v>
+        <v>0.008887258159152339</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.352963463983451</v>
+        <v>2.947615983513602</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008887258159152339</v>
+        <v>0.9478964547194282</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.947615983513602</v>
+        <v>1.86141076353159</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9478964547194282</v>
+        <v>39</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.86141076353159</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1739769173127386</v>
       </c>
     </row>
@@ -3610,72 +3550,66 @@
         <v>5.028898121764689e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.464481903754456</v>
+        <v>2.13443203950562e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.3914179575243084</v>
+        <v>2.244716265492367e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.13443203950562e-07</v>
+        <v>-0.06465658014567652</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.244716265492367e-06</v>
+        <v>0.2147881792670527</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06465658014567652</v>
+        <v>0.05031236942909247</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2147881792670527</v>
+        <v>1.6331554252923</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05031236942909247</v>
+        <v>1.581324937919628</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.563061502860129</v>
+        <v>4.088103523760823</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.581324937919628</v>
+        <v>4.273244472652456e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.088103523760823</v>
+        <v>39918457.31750994</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.273244472652456e-15</v>
+        <v>2.707128654728929e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>39918457.31750994</v>
+        <v>6.809343424560955</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.707128654728929e-06</v>
+        <v>0.0001651222557453182</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>6.809343424560955</v>
+        <v>9.004319678688791</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001651222557453182</v>
+        <v>1.291121942193017</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.004319678688791</v>
+        <v>0.01338774474809537</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.291121942193017</v>
+        <v>2.768858078795434</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01338774474809537</v>
+        <v>0.9496837236367467</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.768858078795434</v>
+        <v>1.852372408135166</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9496837236367467</v>
+        <v>39</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.852372408135166</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1572843742611753</v>
       </c>
     </row>
@@ -3690,72 +3624,66 @@
         <v>5.207938243504031e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.5242033642178027</v>
+        <v>2.201550103923873e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.313137527777493</v>
+        <v>2.241369872130445e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.201550103923873e-07</v>
+        <v>-0.06580099129343385</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.241369872130445e-06</v>
+        <v>0.2068121801707379</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06580099129343385</v>
+        <v>0.0471005926592606</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2068121801707379</v>
+        <v>1.657448398190532</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0471005926592606</v>
+        <v>1.456926564401497</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.596506861931616</v>
+        <v>4.093560156224088</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.456926564401497</v>
+        <v>4.261859769494033e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.093560156224088</v>
+        <v>39691833.42369941</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.261859769494033e-15</v>
+        <v>2.73520566550633e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>39691833.42369941</v>
+        <v>6.714311346980525</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.73520566550633e-06</v>
+        <v>0.0001947640114889299</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.714311346980525</v>
+        <v>11.83190790334448</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001947640114889299</v>
+        <v>1.075029958868593</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.83190790334448</v>
+        <v>0.02726580171732729</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.075029958868593</v>
+        <v>2.392130836666797</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02726580171732729</v>
+        <v>0.9520714028035367</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.392130836666797</v>
+        <v>1.818728975599437</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9520714028035367</v>
+        <v>38</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.818728975599437</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1564494753110466</v>
       </c>
     </row>
@@ -3770,72 +3698,66 @@
         <v>5.368111299994008e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5792989387714816</v>
+        <v>2.233745956763962e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2825919350299633</v>
+        <v>2.237861963962817e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.233745956763962e-07</v>
+        <v>-0.066879640524383</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.237861963962817e-06</v>
+        <v>0.1991553337142137</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.066879640524383</v>
+        <v>0.04413464986696455</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1991553337142137</v>
+        <v>1.690027021522624</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04413464986696455</v>
+        <v>1.486922315253498</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.641438483076375</v>
+        <v>3.615525875053509</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.486922315253498</v>
+        <v>3.925283870387479e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.615525875053509</v>
+        <v>43788014.04405312</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.925283870387479e-15</v>
+        <v>2.511974865281284e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>43788014.04405312</v>
+        <v>7.526300722936229</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.511974865281284e-06</v>
+        <v>0.0002295010668421304</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.526300722936229</v>
+        <v>12.87694123300477</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002295010668421304</v>
+        <v>1.058925235640485</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.87694123300477</v>
+        <v>0.03805486066052483</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.058925235640485</v>
+        <v>2.25574566743597</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03805486066052483</v>
+        <v>0.9553657731445242</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.25574566743597</v>
+        <v>1.834404842103837</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9553657731445242</v>
+        <v>38</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.834404842103837</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1519859114389346</v>
       </c>
     </row>
@@ -3850,72 +3772,66 @@
         <v>5.484202402914886e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.6335048118527318</v>
+        <v>2.235177086371169e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3197953063779351</v>
+        <v>2.234208447550071e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.235177086371169e-07</v>
+        <v>-0.06723597780656539</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.234208447550071e-06</v>
+        <v>0.1936314627600756</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06723597780656539</v>
+        <v>0.04201375671643119</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1936314627600756</v>
+        <v>1.808980894465341</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04201375671643119</v>
+        <v>1.462964029601591</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.781127782599233</v>
+        <v>4.041245749858699</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.462964029601591</v>
+        <v>3.514208151692072e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.041245749858699</v>
+        <v>45453038.57431244</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.514208151692072e-15</v>
+        <v>2.589126127190302e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>45453038.57431244</v>
+        <v>7.260279243717147</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.589126127190302e-06</v>
+        <v>0.0002691579276028064</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7.260279243717147</v>
+        <v>10.90197817912054</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002691579276028064</v>
+        <v>1.44701165716513</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.90197817912054</v>
+        <v>0.031990261680273</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.44701165716513</v>
+        <v>2.342282149930218</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.031990261680273</v>
+        <v>0.9581603018856444</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.342282149930218</v>
+        <v>1.64257480650273</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9581603018856444</v>
+        <v>37</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.64257480650273</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1514732564457143</v>
       </c>
     </row>
@@ -3930,72 +3846,66 @@
         <v>5.548757236945142e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.6778455600632852</v>
+        <v>2.218157814087117e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4304525528258969</v>
+        <v>2.2305653862228e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.218157814087117e-07</v>
+        <v>-0.06400610055061197</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.2305653862228e-06</v>
+        <v>0.1928886198790852</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06400610055061197</v>
+        <v>0.04130017657902396</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1928886198790852</v>
+        <v>1.808591870810847</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04130017657902396</v>
+        <v>1.451181791932426</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.781876284330297</v>
+        <v>5.596214208731189</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.451181791932426</v>
+        <v>1.830580883775695e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.596214208731189</v>
+        <v>86912907.95190591</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.830580883775695e-15</v>
+        <v>1.353355560211427e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>86912907.95190591</v>
+        <v>13.82793994162335</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.353355560211427e-06</v>
+        <v>0.0002519778162899688</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.82793994162335</v>
+        <v>9.803553528548548</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002519778162899688</v>
+        <v>1.642162535369594</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.803553528548548</v>
+        <v>0.02421750270148513</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.642162535369594</v>
+        <v>2.551598281636156</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02421750270148513</v>
+        <v>0.95725212761543</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.551598281636156</v>
+        <v>1.650884333086798</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.95725212761543</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.650884333086798</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1972791544523574</v>
       </c>
     </row>
@@ -4010,72 +3920,66 @@
         <v>5.571391015404773e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.6887577624446406</v>
+        <v>2.10755758532461e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.5819747871156626</v>
+        <v>2.227202743186695e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.10755758532461e-07</v>
+        <v>-0.05603082332586371</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.227202743186695e-06</v>
+        <v>0.1957657902696493</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05603082332586371</v>
+        <v>0.04145174355633305</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1957657902696493</v>
+        <v>1.830746495145876</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04145174355633305</v>
+        <v>1.570062496304218</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.817659173904622</v>
+        <v>5.583190925919336</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.570062496304218</v>
+        <v>8.006268009030872e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.583190925919336</v>
+        <v>192009857.4290296</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.006268009030872e-16</v>
+        <v>6.143767267378862e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>192009857.4290296</v>
+        <v>29.51733704108517</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.143767267378862e-07</v>
+        <v>0.0001949983519627006</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>29.51733704108517</v>
+        <v>11.10796456059466</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001949983519627006</v>
+        <v>1.2053660658349</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.10796456059466</v>
+        <v>0.02406023760631323</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.2053660658349</v>
+        <v>2.71171278674851</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02406023760631323</v>
+        <v>0.9585320449088545</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.71171278674851</v>
+        <v>1.539599218106678</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9585320449088545</v>
+        <v>37</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.539599218106678</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2938792048269274</v>
       </c>
     </row>
@@ -4090,72 +3994,66 @@
         <v>5.570555789253026e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.6554170390496723</v>
+        <v>1.920878474934571e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7184209509054886</v>
+        <v>2.224380486607844e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.920878474934571e-07</v>
+        <v>-0.04536137707469878</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.224380486607844e-06</v>
+        <v>0.1977815502215197</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04536137707469878</v>
+        <v>0.04116362181824829</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1977815502215197</v>
+        <v>1.749744461372552</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04116362181824829</v>
+        <v>1.690693664771622</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.71629914806822</v>
+        <v>6.521195247089258</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.690693664771622</v>
+        <v>1.076039324310427e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.521195247089258</v>
+        <v>147897686.0090373</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.076039324310427e-15</v>
+        <v>7.721325125662927e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>147897686.0090373</v>
+        <v>23.53698883603953</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>7.721325125662927e-07</v>
+        <v>0.0002029633581694955</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>23.53698883603953</v>
+        <v>12.05365393294568</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002029633581694955</v>
+        <v>1.143058499504805</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.05365393294568</v>
+        <v>0.02948866263389432</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.143058499504805</v>
+        <v>2.671428830627838</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02948866263389432</v>
+        <v>0.9532915060661836</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.671428830627838</v>
+        <v>1.698384909979956</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9532915060661836</v>
+        <v>38</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.698384909979956</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3123724079502733</v>
       </c>
     </row>
@@ -4170,72 +4068,66 @@
         <v>5.573322432002313e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.5944987791172014</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.8236930670810518</v>
+        <v>2.222085339579525e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.0378697249162267</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.222085339579525e-06</v>
+        <v>0.1951559880563044</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0378697249162267</v>
+        <v>0.0395140713351382</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1951559880563044</v>
+        <v>1.735496391938425</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0395140713351382</v>
+        <v>1.568964567544407</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.695495039907796</v>
+        <v>4.527914079102223</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.568964567544407</v>
+        <v>2.685909910009122e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.527914079102223</v>
+        <v>59332239.66586716</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.685909910009122e-15</v>
+        <v>1.908225101763751e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>59332239.66586716</v>
+        <v>9.455248041764632</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.908225101763751e-06</v>
+        <v>0.0002527148224271057</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>9.455248041764632</v>
+        <v>9.481849774661001</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002527148224271057</v>
+        <v>1.8384918989174</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.481849774661001</v>
+        <v>0.02272044618756446</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.8384918989174</v>
+        <v>2.728840860438398</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02272044618756446</v>
+        <v>0.9508740946927643</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.728840860438398</v>
+        <v>1.775848060224309</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9508740946927643</v>
+        <v>25</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.775848060224309</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1741092173576244</v>
       </c>
     </row>
@@ -4250,72 +4142,66 @@
         <v>5.598164978098183e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.5230268919726249</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9212733863478864</v>
+        <v>2.22007236831963e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.03492851151532071</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.22007236831963e-06</v>
+        <v>0.1923918228454943</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03492851151532071</v>
+        <v>0.03823110479345432</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1923918228454943</v>
+        <v>1.688167873396444</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03823110479345432</v>
+        <v>1.531417645740157</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.638529687994144</v>
+        <v>4.140040941779129</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.531417645740157</v>
+        <v>3.212761774934236e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.140040941779129</v>
+        <v>47709078.07678089</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.212761774934236e-15</v>
+        <v>2.32463535544161e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>47709078.07678089</v>
+        <v>7.312747411254588</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.32463535544161e-06</v>
+        <v>0.0001744009648171559</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>7.312747411254588</v>
+        <v>9.271380637989564</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001744009648171559</v>
+        <v>1.524020976894957</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.271380637989564</v>
+        <v>0.01499124514840913</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.524020976894957</v>
+        <v>2.915122111335472</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01499124514840913</v>
+        <v>0.9498644159869721</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.915122111335472</v>
+        <v>1.809925294956398</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9498644159869721</v>
+        <v>25</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.809925294956398</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1627464786159432</v>
       </c>
     </row>
@@ -4330,72 +4216,66 @@
         <v>5.646973468403957e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.4505541175575031</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.019237046227083</v>
+        <v>2.218110966681501e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.03538619310894066</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.218110966681501e-06</v>
+        <v>0.191065495819142</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03538619310894066</v>
+        <v>0.03775625639649133</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.191065495819142</v>
+        <v>1.679986013716036</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03775625639649133</v>
+        <v>1.518370157553241</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.625556827318464</v>
+        <v>4.1346655184103</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.518370157553241</v>
+        <v>3.221120942496957e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.1346655184103</v>
+        <v>47666207.17920137</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.221120942496957e-15</v>
+        <v>2.326543581551648e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>47666207.17920137</v>
+        <v>7.318603584858961</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.326543581551648e-06</v>
+        <v>0.0001448308963329524</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7.318603584858961</v>
+        <v>9.663508084433468</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001448308963329524</v>
+        <v>1.160021920861334</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.663508084433468</v>
+        <v>0.01352479985876077</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.160021920861334</v>
+        <v>2.809629220815894</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01352479985876077</v>
+        <v>0.9509146962942105</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.809629220815894</v>
+        <v>1.806874534840007</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9509146962942105</v>
+        <v>25</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.806874534840007</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1764233134448577</v>
       </c>
     </row>
@@ -4410,72 +4290,66 @@
         <v>5.713093605377327e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.3816683329664253</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.108809045087057</v>
+        <v>2.216021722511268e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.03865127000997912</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.216021722511268e-06</v>
+        <v>0.1893536575125436</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03865127000997912</v>
+        <v>0.03734573562891377</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1893536575125436</v>
+        <v>1.682681686513701</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03734573562891377</v>
+        <v>1.532318854813181</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.628022365939223</v>
+        <v>4.178067738345772</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.532318854813181</v>
+        <v>3.154545836590104e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.178067738345772</v>
+        <v>50623816.23188726</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.154545836590104e-15</v>
+        <v>2.209606052603623e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>50623816.23188726</v>
+        <v>8.08437786225943</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.209606052603623e-06</v>
+        <v>0.0001443302536817133</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8.08437786225943</v>
+        <v>9.531564592916421</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001443302536817133</v>
+        <v>1.189585042555853</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.531564592916421</v>
+        <v>0.01311250798275863</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.189585042555853</v>
+        <v>2.702032109164408</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01311250798275863</v>
+        <v>0.9504323427658344</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.702032109164408</v>
+        <v>1.803347390562605</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9504323427658344</v>
+        <v>30</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.803347390562605</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1815599443162095</v>
       </c>
     </row>
@@ -4490,72 +4364,66 @@
         <v>5.783157720822568e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3197166868092016</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.177609713707526</v>
+        <v>2.213639600092644e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.044589239362952</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.213639600092644e-06</v>
+        <v>0.1845418934406849</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.044589239362952</v>
+        <v>0.0360370131262967</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1845418934406849</v>
+        <v>1.682503976770834</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0360370131262967</v>
+        <v>1.570720316307006</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.625658839594251</v>
+        <v>4.176026692227776</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.570720316307006</v>
+        <v>3.157630178451368e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.176026692227776</v>
+        <v>50609545.72192656</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.157630178451368e-15</v>
+        <v>2.213956640530885e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>50609545.72192656</v>
+        <v>8.08772064762015</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.213956640530885e-06</v>
+        <v>0.0001403005970320783</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8.08772064762015</v>
+        <v>8.575175491469871</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001403005970320783</v>
+        <v>1.228223815879703</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.575175491469871</v>
+        <v>0.01031681285168239</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.228223815879703</v>
+        <v>2.846131207624943</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01031681285168239</v>
+        <v>0.950712420914433</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.846131207624943</v>
+        <v>1.808597865941152</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.950712420914433</v>
+        <v>30</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.808597865941152</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1772545208511669</v>
       </c>
     </row>
@@ -4570,72 +4438,66 @@
         <v>5.834481521351655e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.272073774622514</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.224193852963704</v>
+        <v>2.21086366685817e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.05035978352869704</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.21086366685817e-06</v>
+        <v>0.178830380401792</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05035978352869704</v>
+        <v>0.03451459527736208</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.178830380401792</v>
+        <v>1.691892745773594</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03451459527736208</v>
+        <v>1.561309759742562</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.627225556248754</v>
+        <v>4.12364893469682</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.561309759742562</v>
+        <v>3.23835478090816e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.12364893469682</v>
+        <v>50097020.24205459</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.23835478090816e-15</v>
+        <v>2.24768918473985e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>50097020.24205459</v>
+        <v>8.127336031138981</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.24768918473985e-06</v>
+        <v>0.0001498741769450466</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>8.127336031138981</v>
+        <v>7.667505321658818</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001498741769450466</v>
+        <v>1.556813245867785</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.667505321658818</v>
+        <v>0.008811198460992032</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.556813245867785</v>
+        <v>2.969060477025695</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.008811198460992032</v>
+        <v>0.9510181587762723</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.969060477025695</v>
+        <v>1.787568893445336</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9510181587762723</v>
+        <v>30</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.787568893445336</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1611062177562236</v>
       </c>
     </row>
@@ -4650,72 +4512,66 @@
         <v>5.862352327586474e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2378886595940943</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.264614325747119</v>
+        <v>2.207855983746268e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.0517073590880936</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.207855983746268e-06</v>
+        <v>0.1773102145909967</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0517073590880936</v>
+        <v>0.03411287998128516</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1773102145909967</v>
+        <v>1.686940197603479</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03411287998128516</v>
+        <v>1.594052375263036</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.624096538997815</v>
+        <v>4.038524791708628</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.594052375263036</v>
+        <v>3.37630980035629e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.038524791708628</v>
+        <v>47674049.00069633</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.37630980035629e-15</v>
+        <v>2.35906487899595e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>47674049.00069633</v>
+        <v>7.673727383736514</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.35906487899595e-06</v>
+        <v>0.0001636510754432353</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>7.673727383736514</v>
+        <v>8.771242177558769</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001636510754432353</v>
+        <v>1.492419282447361</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.771242177558769</v>
+        <v>0.01259044464895441</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.492419282447361</v>
+        <v>2.904870310711106</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01259044464895441</v>
+        <v>0.9512666179091838</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.904870310711106</v>
+        <v>1.792594089030287</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9512666179091838</v>
+        <v>21</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.792594089030287</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.152495150002867</v>
       </c>
     </row>
@@ -4730,72 +4586,66 @@
         <v>5.875609137541978e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2037794919845367</v>
+        <v>1.893904604613839e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.304041071094582</v>
+        <v>2.204852604795351e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.893904604613839e-07</v>
+        <v>-0.05057511318693235</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.204852604795351e-06</v>
+        <v>0.1771385675857584</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05057511318693235</v>
+        <v>0.03393613921235138</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1771385675857584</v>
+        <v>1.663248786914623</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03393613921235138</v>
+        <v>1.575609089690175</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.593237080859589</v>
+        <v>4.024399078782943</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.575609089690175</v>
+        <v>3.400053213131438e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.024399078782943</v>
+        <v>47687626.11856443</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.400053213131438e-15</v>
+        <v>2.343034707585244e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>47687626.11856443</v>
+        <v>7.732093940899123</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.343034707585244e-06</v>
+        <v>0.0001528350044061835</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>7.732093940899123</v>
+        <v>10.42640781981051</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001528350044061835</v>
+        <v>1.130835978540047</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.42640781981051</v>
+        <v>0.01661469027611789</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.130835978540047</v>
+        <v>2.735504111069577</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01661469027611789</v>
+        <v>0.9506031552623436</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.735504111069577</v>
+        <v>1.814398256769749</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9506031552623436</v>
+        <v>7</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.814398256769749</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1657312566369793</v>
       </c>
     </row>
@@ -5172,7 +5022,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.322892116016438</v>
+        <v>1.303872663666786</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.318870852241361</v>
@@ -5261,7 +5111,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.328166915299632</v>
+        <v>1.310095259066123</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.304699885637502</v>
@@ -5350,7 +5200,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.362779044201471</v>
+        <v>1.340045983636241</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.214524773909585</v>
@@ -5439,7 +5289,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.367593845421203</v>
+        <v>1.341744294373331</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.163334735980713</v>
@@ -5528,7 +5378,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.377080461688098</v>
+        <v>1.347864955390281</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.173994152744761</v>
@@ -5617,7 +5467,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.394145397588951</v>
+        <v>1.363278570988039</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.541919725477813</v>
@@ -5706,7 +5556,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.405709605875805</v>
+        <v>1.371641797864793</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.320425637990519</v>
@@ -5795,7 +5645,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.431070936133616</v>
+        <v>1.389374867705335</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.361620975924006</v>
@@ -5884,7 +5734,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437043030168869</v>
+        <v>1.399645431266662</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.563148351470405</v>
@@ -5973,7 +5823,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45475226407636</v>
+        <v>1.413720616574534</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.153910080062443</v>
@@ -6062,7 +5912,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490758540644337</v>
+        <v>1.443774238468574</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.305372597519556</v>
@@ -6151,7 +6001,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504714387408651</v>
+        <v>1.452336151927579</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.545714454651598</v>
@@ -6240,7 +6090,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.49681687822713</v>
+        <v>1.443393594134736</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.296119551978619</v>
@@ -6329,7 +6179,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.488388586686715</v>
+        <v>1.442228686758796</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.342358393877235</v>
@@ -6418,7 +6268,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519435897193307</v>
+        <v>1.472952329100963</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.200170129426366</v>
@@ -6507,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.503194602766777</v>
+        <v>1.456203912022238</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.331056388616804</v>
@@ -6596,7 +6446,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503746631069152</v>
+        <v>1.447031077321115</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.457143398645691</v>
@@ -6685,7 +6535,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.492919748881196</v>
+        <v>1.446796642481738</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.246234242607669</v>
@@ -6774,7 +6624,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.511596287942461</v>
+        <v>1.461235647854275</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.267196754313683</v>
@@ -6863,7 +6713,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538427657942904</v>
+        <v>1.486051321979602</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.197618771516139</v>
@@ -6952,7 +6802,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53834321929941</v>
+        <v>1.490085577765642</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.370270104035044</v>
@@ -7041,7 +6891,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544036671906122</v>
+        <v>1.494623148935915</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.321725994919628</v>
@@ -7130,7 +6980,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.51723995700903</v>
+        <v>1.465165989246383</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.329686227286257</v>
@@ -7219,7 +7069,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.508929165721707</v>
+        <v>1.454517140502001</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.409865168804635</v>
@@ -7308,7 +7158,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.506956391480802</v>
+        <v>1.451307502442136</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.415477520590674</v>
@@ -7397,7 +7247,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.507809010976402</v>
+        <v>1.446115314305965</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.514450105016663</v>
@@ -7486,7 +7336,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.511946006030199</v>
+        <v>1.458156991728418</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.40577793048893</v>
@@ -7575,7 +7425,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.52762214291611</v>
+        <v>1.473320109007393</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.374698510355587</v>
@@ -7664,7 +7514,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.527749649730642</v>
+        <v>1.47803497177179</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.462571296683714</v>
@@ -7753,7 +7603,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.525849130545549</v>
+        <v>1.467968898531476</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.26959020570802</v>
@@ -7842,7 +7692,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.534120455584137</v>
+        <v>1.466786001705774</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.434862403932427</v>
@@ -7931,7 +7781,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.554963762437769</v>
+        <v>1.482468107791864</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.295520686940481</v>
@@ -8020,7 +7870,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.548924895078881</v>
+        <v>1.468039048032867</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.484662018312746</v>
@@ -8109,7 +7959,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.530821857226389</v>
+        <v>1.453486910595265</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.583104244597992</v>
@@ -8198,7 +8048,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521032914946707</v>
+        <v>1.442252022386701</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.440002388081484</v>
@@ -8287,7 +8137,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516420033825255</v>
+        <v>1.432592235060283</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.53814617534054</v>
@@ -8376,7 +8226,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.505623640493576</v>
+        <v>1.426546600392155</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.578807632296833</v>
@@ -8465,7 +8315,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516142300696149</v>
+        <v>1.434260079228434</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.414785846438777</v>
@@ -8554,7 +8404,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.500715367866007</v>
+        <v>1.417348724728003</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.568479149707163</v>
@@ -8643,7 +8493,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.487986207977208</v>
+        <v>1.413305997958596</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.420747055485589</v>
@@ -8732,7 +8582,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.466560904318625</v>
+        <v>1.398576253421312</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530306539294525</v>
@@ -8821,7 +8671,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.457358025997061</v>
+        <v>1.389957209100919</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.584826401031893</v>
@@ -8910,7 +8760,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.434243998156645</v>
+        <v>1.368455144165989</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.470256159717439</v>
@@ -8999,7 +8849,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.439893589943095</v>
+        <v>1.369153780893034</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.486859390024151</v>
@@ -9088,7 +8938,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.426236844739016</v>
+        <v>1.361807447563494</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.288601510144362</v>
@@ -9177,7 +9027,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.413734231883514</v>
+        <v>1.352198306064246</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.483372749121882</v>
@@ -9266,7 +9116,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.412395466187458</v>
+        <v>1.34374831446061</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.467381074760358</v>
@@ -9355,7 +9205,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.425009438046384</v>
+        <v>1.354911040724367</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.299642541978071</v>
@@ -9444,7 +9294,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.427994339211782</v>
+        <v>1.360401316920177</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.516539827098283</v>
@@ -9533,7 +9383,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.442186550265617</v>
+        <v>1.375360911864336</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.547387084754198</v>
@@ -9622,7 +9472,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.444702250122361</v>
+        <v>1.37259800875933</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.452523894523376</v>
@@ -9711,7 +9561,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.460263971312774</v>
+        <v>1.380498101570036</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.458790707664372</v>
@@ -9800,7 +9650,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.459115872679662</v>
+        <v>1.383041005579927</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.454780938419859</v>
@@ -9889,7 +9739,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.489720807383175</v>
+        <v>1.414446282373235</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.184836386109821</v>
@@ -9978,7 +9828,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.489446280849397</v>
+        <v>1.415454319649428</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.412281542279124</v>
@@ -10067,7 +9917,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.522425967727945</v>
+        <v>1.441312368535381</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.375182943864011</v>
@@ -10156,7 +10006,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.528789519402572</v>
+        <v>1.446349686401454</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.127479707634165</v>
@@ -10245,7 +10095,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.525513643740639</v>
+        <v>1.433355630504599</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.397700949140027</v>
@@ -10334,7 +10184,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.492777457424924</v>
+        <v>1.414002060951994</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.231521203924706</v>
@@ -10423,7 +10273,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.509294900453928</v>
+        <v>1.428232727521042</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.193013535949369</v>
@@ -10512,7 +10362,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.534900454971349</v>
+        <v>1.450739122244991</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.253098570525336</v>
@@ -10601,7 +10451,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.539786167897913</v>
+        <v>1.462936120928948</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.285679397256655</v>
@@ -10690,7 +10540,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.543835379002094</v>
+        <v>1.466753665100058</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.326317868880263</v>
@@ -10779,7 +10629,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.545168043937226</v>
+        <v>1.461799374023084</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.292261905005778</v>
@@ -10868,7 +10718,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.518459176207949</v>
+        <v>1.437753403871289</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.239666339303445</v>
@@ -10957,7 +10807,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.516207800060435</v>
+        <v>1.442844658272704</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.298968145528845</v>
@@ -11046,7 +10896,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.522432992965988</v>
+        <v>1.451689088429699</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.325145539898547</v>
@@ -11135,7 +10985,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.51172064562805</v>
+        <v>1.43930984979847</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.286297318995581</v>
@@ -11421,7 +11271,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.254762717604578</v>
+        <v>1.250529864201789</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.112243984438781</v>
@@ -11510,7 +11360,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.250626896202601</v>
+        <v>1.247688897042438</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.026315910994783</v>
@@ -11599,7 +11449,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.258575494231853</v>
+        <v>1.255138357520963</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.098254064233969</v>
@@ -11688,7 +11538,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.262759646915252</v>
+        <v>1.258633234465142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.980776026688727</v>
@@ -11777,7 +11627,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.283545668885136</v>
+        <v>1.274717435788909</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.908992421784061</v>
@@ -11866,7 +11716,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.336833538818548</v>
+        <v>1.321418015221162</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.906823134943846</v>
@@ -11955,7 +11805,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368337413837022</v>
+        <v>1.35154096805345</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.047114808136275</v>
@@ -12044,7 +11894,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.391526084458809</v>
+        <v>1.364581718734249</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.895036403766994</v>
@@ -12133,7 +11983,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.391581246360529</v>
+        <v>1.370788542418071</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.037400356142912</v>
@@ -12222,7 +12072,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.402905564585512</v>
+        <v>1.376933261147924</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.762365709425332</v>
@@ -12311,7 +12161,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501396229096116</v>
+        <v>1.456725727447921</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.36587147428396</v>
@@ -12400,7 +12250,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.522686415449692</v>
+        <v>1.477766401156865</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.982343403039885</v>
@@ -12489,7 +12339,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522293249907618</v>
+        <v>1.473775201285807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.613701015044553</v>
@@ -12578,7 +12428,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.511056612787843</v>
+        <v>1.474809217225434</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.863432925206887</v>
@@ -12667,7 +12517,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.508502253880941</v>
+        <v>1.477896249281091</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.521652056082796</v>
@@ -12756,7 +12606,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.512531151194975</v>
+        <v>1.475995834622558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.679126869362568</v>
@@ -12845,7 +12695,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.508705302401603</v>
+        <v>1.468791637957476</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.033994746891337</v>
@@ -12934,7 +12784,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.506632983280613</v>
+        <v>1.469585200106992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.590448461274078</v>
@@ -13023,7 +12873,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.509720308394961</v>
+        <v>1.470995947376392</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.872588395561268</v>
@@ -13112,7 +12962,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.52167500016153</v>
+        <v>1.484684004505245</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.688777425734811</v>
@@ -13201,7 +13051,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.507061726557057</v>
+        <v>1.473872940041655</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.081371694494275</v>
@@ -13290,7 +13140,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51724335997738</v>
+        <v>1.482436133097971</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.08845786085167</v>
@@ -13379,7 +13229,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503351720274574</v>
+        <v>1.468188669071103</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.033901071263951</v>
@@ -13468,7 +13318,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.500407167078527</v>
+        <v>1.466156481654884</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.025708702783864</v>
@@ -13557,7 +13407,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.497839768649817</v>
+        <v>1.463693842427127</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.807632065185674</v>
@@ -13646,7 +13496,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.494104571901022</v>
+        <v>1.459119975467057</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.910752060556427</v>
@@ -13735,7 +13585,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493436522949258</v>
+        <v>1.457393935458263</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.928973008457406</v>
@@ -13824,7 +13674,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.493546623279516</v>
+        <v>1.462111656936309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.70477959038272</v>
@@ -13913,7 +13763,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.499364016703096</v>
+        <v>1.470453179790939</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.651241227029588</v>
@@ -14002,7 +13852,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.502058217779346</v>
+        <v>1.46529256359791</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.035760390148485</v>
@@ -14091,7 +13941,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.497742867067242</v>
+        <v>1.454465247033052</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.074588516818731</v>
@@ -14180,7 +14030,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.513211354349906</v>
+        <v>1.459509016229437</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.805204105030136</v>
@@ -14269,7 +14119,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.507462145803781</v>
+        <v>1.446596849376547</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.740289290078171</v>
@@ -14358,7 +14208,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.499229035154378</v>
+        <v>1.436900692881055</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.860707890411211</v>
@@ -14447,7 +14297,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.491638127366964</v>
+        <v>1.427211415287452</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.715324596775059</v>
@@ -14536,7 +14386,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499507338727746</v>
+        <v>1.428270121116264</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.851168325327924</v>
@@ -14625,7 +14475,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.483460968449359</v>
+        <v>1.415685005679772</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.510354175086342</v>
@@ -14714,7 +14564,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.484357791887766</v>
+        <v>1.409582517500309</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.621775758039089</v>
@@ -14803,7 +14653,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.485212267945452</v>
+        <v>1.405383232386871</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.858291651549111</v>
@@ -14892,7 +14742,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.485411589013677</v>
+        <v>1.409530150474237</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.576049974076914</v>
@@ -14981,7 +14831,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.473543562333654</v>
+        <v>1.402991437068794</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.651979550833928</v>
@@ -15070,7 +14920,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.467551127186317</v>
+        <v>1.400292891430738</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.722613369252821</v>
@@ -15159,7 +15009,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460354708759028</v>
+        <v>1.39346324338343</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.744271525998097</v>
@@ -15248,7 +15098,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.460761252318132</v>
+        <v>1.390416994052294</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.558162801276563</v>
@@ -15337,7 +15187,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.45267039547878</v>
+        <v>1.38460582990948</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.488820572469995</v>
@@ -15426,7 +15276,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.445740118790831</v>
+        <v>1.382090622757835</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.896546575690277</v>
@@ -15515,7 +15365,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.440947219907109</v>
+        <v>1.374270574856936</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.664350074052845</v>
@@ -15604,7 +15454,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.446758775891885</v>
+        <v>1.380697013197377</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.382449778707665</v>
@@ -15693,7 +15543,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.446555673749857</v>
+        <v>1.387815516396619</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.683258722817608</v>
@@ -15782,7 +15632,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.461520179773321</v>
+        <v>1.406363976371679</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.656218127715053</v>
@@ -15871,7 +15721,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463308501827283</v>
+        <v>1.411188965399677</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.729586449191294</v>
@@ -15960,7 +15810,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.479379128644402</v>
+        <v>1.424443394509771</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.845685700811918</v>
@@ -16049,7 +15899,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.481247241063753</v>
+        <v>1.432535790332078</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.61038299883108</v>
@@ -16138,7 +15988,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.487865848829534</v>
+        <v>1.440533234883557</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.42594966617539</v>
@@ -16227,7 +16077,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.489373836595383</v>
+        <v>1.440741720979577</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.640654346107262</v>
@@ -16316,7 +16166,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.50714601014729</v>
+        <v>1.451373232233997</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.44934357511727</v>
@@ -16405,7 +16255,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.516070212012175</v>
+        <v>1.454894239817277</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.478713200071247</v>
@@ -16494,7 +16344,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.510543490875579</v>
+        <v>1.450712548110243</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.662933699694256</v>
@@ -16583,7 +16433,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.499452578931411</v>
+        <v>1.445340272666658</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.508074217094669</v>
@@ -16672,7 +16522,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.512840329677884</v>
+        <v>1.463873467092085</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.508629371569655</v>
@@ -16761,7 +16611,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.529259545733145</v>
+        <v>1.474575142575211</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.726195389594789</v>
@@ -16850,7 +16700,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.528421361726357</v>
+        <v>1.481653102196722</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.657296695574265</v>
@@ -16939,7 +16789,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.531966268606429</v>
+        <v>1.476382210749534</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.767107139007391</v>
@@ -17028,7 +16878,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.536029416384646</v>
+        <v>1.470385203970635</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.522985550027539</v>
@@ -17117,7 +16967,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.52159151165754</v>
+        <v>1.448744572774627</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.82445474478936</v>
@@ -17206,7 +17056,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.517331511230683</v>
+        <v>1.444143973864902</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.637624061533688</v>
@@ -17295,7 +17145,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.520090048838841</v>
+        <v>1.444678610783055</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.542997372448944</v>
@@ -17384,7 +17234,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.514168210160824</v>
+        <v>1.440296602923167</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.597404591927827</v>
@@ -17670,7 +17520,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.603096632828021</v>
+        <v>1.558130249898129</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.92389187309813</v>
@@ -17759,7 +17609,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.61230444513146</v>
+        <v>1.566820763880867</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.747868079529811</v>
@@ -17848,7 +17698,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.62230982024165</v>
+        <v>1.569366191374478</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.944534466999037</v>
@@ -17937,7 +17787,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621705081406472</v>
+        <v>1.56524952173989</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.913582684044711</v>
@@ -18026,7 +17876,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615137100507614</v>
+        <v>1.556778999112892</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.900633369449919</v>
@@ -18115,7 +17965,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618082224632768</v>
+        <v>1.544016904816287</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.676223373830045</v>
@@ -18204,7 +18054,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.649304324755072</v>
+        <v>1.574299770976899</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.777421855719156</v>
@@ -18293,7 +18143,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.645931689943214</v>
+        <v>1.564096746569345</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.680975457188628</v>
@@ -18382,7 +18232,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.652862947714217</v>
+        <v>1.578177886171367</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.644156774684912</v>
@@ -18471,7 +18321,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.64832656385486</v>
+        <v>1.570517311398474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.522263468656837</v>
@@ -18560,7 +18410,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686589661273235</v>
+        <v>1.590125667263899</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.86889995927227</v>
@@ -18649,7 +18499,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.702587747864832</v>
+        <v>1.598892429483594</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.366316660367551</v>
@@ -18738,7 +18588,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.692971197857158</v>
+        <v>1.583178216941736</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.697731074011446</v>
@@ -18827,7 +18677,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.689919385693276</v>
+        <v>1.585905615843916</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.009731318999885</v>
@@ -18916,7 +18766,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.697510579560296</v>
+        <v>1.599390728046349</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.979975822235887</v>
@@ -19005,7 +18855,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.701208948242327</v>
+        <v>1.600061300326854</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.754886437304594</v>
@@ -19094,7 +18944,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.703035555539069</v>
+        <v>1.603161408455573</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.0069848197602</v>
@@ -19183,7 +19033,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.694815290794182</v>
+        <v>1.602257903858217</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.08007772084123</v>
@@ -19272,7 +19122,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.698084085489404</v>
+        <v>1.600852614251014</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.024698812315973</v>
@@ -19361,7 +19211,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.703724459124232</v>
+        <v>1.602453266565692</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.89683427529889</v>
@@ -19450,7 +19300,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.706968551929731</v>
+        <v>1.604789594145296</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.083812570384358</v>
@@ -19539,7 +19389,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.702340022722618</v>
+        <v>1.59901776333344</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.057344779910802</v>
@@ -19628,7 +19478,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.703723726640025</v>
+        <v>1.593686217874311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.861884967318232</v>
@@ -19717,7 +19567,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696057520037699</v>
+        <v>1.587695773882147</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.868791787023753</v>
@@ -19806,7 +19656,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.689842496590765</v>
+        <v>1.58148516737424</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.833321371587145</v>
@@ -19895,7 +19745,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.684149867357369</v>
+        <v>1.565523126522642</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.529451588108724</v>
@@ -19984,7 +19834,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.669042715939954</v>
+        <v>1.557219575706682</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.4744720282953</v>
@@ -20073,7 +19923,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668984011275923</v>
+        <v>1.556261199964778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.131771364639687</v>
@@ -20162,7 +20012,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.663840338355451</v>
+        <v>1.556284322814943</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.550437855158026</v>
@@ -20251,7 +20101,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.663541656502106</v>
+        <v>1.550454988003273</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.489213813171646</v>
@@ -20340,7 +20190,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653294602648254</v>
+        <v>1.534444233873723</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.338122410918646</v>
@@ -20429,7 +20279,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.63585515563511</v>
+        <v>1.511903829336534</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.327673496601391</v>
@@ -20518,7 +20368,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638871042338245</v>
+        <v>1.510535328559866</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.441270899812201</v>
@@ -20607,7 +20457,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631997594108073</v>
+        <v>1.506014034177909</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.03691004554542</v>
@@ -20696,7 +20546,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637759210825793</v>
+        <v>1.513281071117836</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.334378542669377</v>
@@ -20785,7 +20635,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.635682543825102</v>
+        <v>1.508357182214936</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.559428685600349</v>
@@ -20874,7 +20724,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.637266861396279</v>
+        <v>1.508514921912508</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.058611097212124</v>
@@ -20963,7 +20813,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.64497331327107</v>
+        <v>1.507179665547244</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.418586303483236</v>
@@ -21052,7 +20902,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.634224008305562</v>
+        <v>1.4906437266103</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.986017002249102</v>
@@ -21141,7 +20991,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626162222126403</v>
+        <v>1.486503501484335</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.392494263070804</v>
@@ -21230,7 +21080,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623365298786293</v>
+        <v>1.493751423158388</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.372212005052254</v>
@@ -21319,7 +21169,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627890465897744</v>
+        <v>1.494916967923594</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.435471954186938</v>
@@ -21408,7 +21258,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625445004439377</v>
+        <v>1.493750956507146</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.492102463626187</v>
@@ -21497,7 +21347,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.627155366212979</v>
+        <v>1.495676315025726</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.496702008887528</v>
@@ -21586,7 +21436,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629948479454681</v>
+        <v>1.50063720451399</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.988202037561962</v>
@@ -21675,7 +21525,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.634345934223452</v>
+        <v>1.509729287909607</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.175600166403412</v>
@@ -21764,7 +21614,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.630631038513604</v>
+        <v>1.503160377349827</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.565620195730557</v>
@@ -21853,7 +21703,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637500814070539</v>
+        <v>1.510348070780836</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.355435324919787</v>
@@ -21942,7 +21792,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.641813574776796</v>
+        <v>1.516870021047618</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.478405881210449</v>
@@ -22031,7 +21881,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.641805687764393</v>
+        <v>1.51862739891257</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.08308216698431</v>
@@ -22120,7 +21970,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.635022865446491</v>
+        <v>1.513214831498723</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.118419408927471</v>
@@ -22209,7 +22059,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.63929601004141</v>
+        <v>1.516401153507746</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.440272584120406</v>
@@ -22298,7 +22148,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629808801330909</v>
+        <v>1.514885187755734</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.060431385075713</v>
@@ -22387,7 +22237,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.651215721313868</v>
+        <v>1.542139067295533</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.557332262985506</v>
@@ -22476,7 +22326,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.655004047247254</v>
+        <v>1.551980715306751</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.673888356169689</v>
@@ -22565,7 +22415,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.65976003014685</v>
+        <v>1.558395758752177</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.62864461987727</v>
@@ -22654,7 +22504,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.661890795732893</v>
+        <v>1.560662065555547</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.936713719313857</v>
@@ -22743,7 +22593,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.655400589787343</v>
+        <v>1.546389061624255</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.347123420449254</v>
@@ -22832,7 +22682,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.645801417659599</v>
+        <v>1.536977369493222</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.247431938667474</v>
@@ -22921,7 +22771,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648942209665609</v>
+        <v>1.538587096248294</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.803915588499858</v>
@@ -23010,7 +22860,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.641644102866541</v>
+        <v>1.528769014676207</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.318946262021634</v>
@@ -23099,7 +22949,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.655203322613227</v>
+        <v>1.550856199021716</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.583320695854278</v>
@@ -23188,7 +23038,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.659672537759224</v>
+        <v>1.546052587303756</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.227775961213302</v>
@@ -23277,7 +23127,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.660455389241896</v>
+        <v>1.533577716256583</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.384292250464665</v>
@@ -23366,7 +23216,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.650847358375697</v>
+        <v>1.519062917143672</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.187857049672705</v>
@@ -23455,7 +23305,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.651388137073576</v>
+        <v>1.524098101711294</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.297409028663082</v>
@@ -23544,7 +23394,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.650405213236706</v>
+        <v>1.521845853920061</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.30568982071723</v>
@@ -23633,7 +23483,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.64630054576415</v>
+        <v>1.51445356980036</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.394813414716575</v>
@@ -23919,7 +23769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512763686470706</v>
+        <v>1.505737581102552</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.559452331251054</v>
@@ -24008,7 +23858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.503391458966521</v>
+        <v>1.500102891892324</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.555992530519219</v>
@@ -24097,7 +23947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.511247552329042</v>
+        <v>1.501368258051055</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.561703217147328</v>
@@ -24186,7 +24036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504827449574166</v>
+        <v>1.493444523685544</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.515181914579462</v>
@@ -24275,7 +24125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.51204395773485</v>
+        <v>1.501749755096297</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.344419285725622</v>
@@ -24364,7 +24214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.539648985885983</v>
+        <v>1.521335920145043</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.332062641798528</v>
@@ -24453,7 +24303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577846759295927</v>
+        <v>1.553410448242077</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.500696792451329</v>
@@ -24542,7 +24392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.588343065158943</v>
+        <v>1.547628813504948</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.316182919846141</v>
@@ -24631,7 +24481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599831589287837</v>
+        <v>1.562794166513891</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.422394751699692</v>
@@ -24720,7 +24570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605068805114049</v>
+        <v>1.567891897867283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.237616501854969</v>
@@ -24809,7 +24659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.688408815652076</v>
+        <v>1.617156834556775</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.631618587760433</v>
@@ -24898,7 +24748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.700072060729173</v>
+        <v>1.620120647335966</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.701033587084551</v>
@@ -24987,7 +24837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.695558935301284</v>
+        <v>1.611114567393651</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.783746509247935</v>
@@ -25076,7 +24926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.703672548942435</v>
+        <v>1.605506155395074</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.007669874068792</v>
@@ -25165,7 +25015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.704623911451995</v>
+        <v>1.608858357472692</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.663615664750313</v>
@@ -25254,7 +25104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.721508390802522</v>
+        <v>1.612155058067509</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.614987758711706</v>
@@ -25343,7 +25193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.719190550258169</v>
+        <v>1.597905776994042</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.616496041045973</v>
@@ -25432,7 +25282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.716646203831997</v>
+        <v>1.598916841376566</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.670917778261155</v>
@@ -25521,7 +25371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.721071511674883</v>
+        <v>1.599402665877036</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.915222741983207</v>
@@ -25610,7 +25460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.724002792673422</v>
+        <v>1.602106573388377</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.642083919756462</v>
@@ -25699,7 +25549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.720813811648873</v>
+        <v>1.597273438071397</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.477702795502856</v>
@@ -25788,7 +25638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.71792425840105</v>
+        <v>1.599515826310645</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.463955712807662</v>
@@ -25877,7 +25727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.716221177783507</v>
+        <v>1.597974338865435</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.653453008177603</v>
@@ -25966,7 +25816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.713252677112803</v>
+        <v>1.587621107098438</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.018729440535019</v>
@@ -26055,7 +25905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.704274145124235</v>
+        <v>1.576561020337763</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.611029414201472</v>
@@ -26144,7 +25994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.69662012497737</v>
+        <v>1.564757975108422</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.351043109466309</v>
@@ -26233,7 +26083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693541315396002</v>
+        <v>1.563163925262968</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.641200261060233</v>
@@ -26322,7 +26172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.695011219273236</v>
+        <v>1.559735453781023</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.333427926506228</v>
@@ -26411,7 +26261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.69645048254247</v>
+        <v>1.55594392757265</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.360096640538614</v>
@@ -26500,7 +26350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693630890304856</v>
+        <v>1.546028931038167</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.685774467339599</v>
@@ -26589,7 +26439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690411428973828</v>
+        <v>1.545684646226769</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.671106056170146</v>
@@ -26678,7 +26528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683911832407182</v>
+        <v>1.549075188896037</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.775445173153195</v>
@@ -26767,7 +26617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.68007973088261</v>
+        <v>1.54253380639399</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.257774561184963</v>
@@ -26856,7 +26706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670040982577789</v>
+        <v>1.535693010404585</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.006140785450857</v>
@@ -26945,7 +26795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.664887836492231</v>
+        <v>1.525786574822044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.209374662626058</v>
@@ -27034,7 +26884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667229844831367</v>
+        <v>1.526560250604233</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.241230454351927</v>
@@ -27123,7 +26973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659930779463866</v>
+        <v>1.517816606407437</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.042611029383766</v>
@@ -27212,7 +27062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655145285282957</v>
+        <v>1.508227615869718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.261256565476281</v>
@@ -27301,7 +27151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.663215237321291</v>
+        <v>1.514480626889845</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.35733975752885</v>
@@ -27390,7 +27240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.663680885199082</v>
+        <v>1.511691615426536</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.181629279286369</v>
@@ -27479,7 +27329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.659908139215819</v>
+        <v>1.509417000911126</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.354666924952222</v>
@@ -27568,7 +27418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.661609746060617</v>
+        <v>1.506767483515646</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.468570782137621</v>
@@ -27657,7 +27507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.652893578133495</v>
+        <v>1.499362999360715</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.26662150649561</v>
@@ -27746,7 +27596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.652154690943527</v>
+        <v>1.502250791414655</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.254677971134773</v>
@@ -27835,7 +27685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655846235554593</v>
+        <v>1.514638807640835</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.256408679033812</v>
@@ -27924,7 +27774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.657009893195716</v>
+        <v>1.510356880402388</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.441229785649397</v>
@@ -28013,7 +27863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.655474322978255</v>
+        <v>1.508452728391998</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.186018653750848</v>
@@ -28102,7 +27952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.661509500596708</v>
+        <v>1.520154930787686</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.505222977164046</v>
@@ -28191,7 +28041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.674555562126175</v>
+        <v>1.529944827279441</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.439018191706814</v>
@@ -28280,7 +28130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.680758790910692</v>
+        <v>1.534515515158468</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.286650376428346</v>
@@ -28369,7 +28219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.6808173040225</v>
+        <v>1.530354186919012</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.045708534480036</v>
@@ -28458,7 +28308,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.692338639539726</v>
+        <v>1.534620978224572</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.519662507064766</v>
@@ -28547,7 +28397,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.688240333125684</v>
+        <v>1.532189725786205</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.11171944480963</v>
@@ -28636,7 +28486,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.687404432186244</v>
+        <v>1.5349231570665</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.591044364021009</v>
@@ -28725,7 +28575,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.68551331091081</v>
+        <v>1.537770147015682</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.57248485533068</v>
@@ -28814,7 +28664,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.687013360595824</v>
+        <v>1.55115497279116</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.587039498037219</v>
@@ -28903,7 +28753,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.687223052166165</v>
+        <v>1.559326915769378</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.61954006014812</v>
@@ -28992,7 +28842,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.695835101856724</v>
+        <v>1.558133001907805</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.549649605723124</v>
@@ -29081,7 +28931,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.69071867333565</v>
+        <v>1.554519188666851</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.54014104309554</v>
@@ -29170,7 +29020,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.692559042058272</v>
+        <v>1.549450845306326</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.721355368626607</v>
@@ -29259,7 +29109,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.69464668185643</v>
+        <v>1.558340982187162</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.665773866514846</v>
@@ -29348,7 +29198,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.70008445872973</v>
+        <v>1.562472152612608</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.757607178687439</v>
@@ -29437,7 +29287,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.698433492974904</v>
+        <v>1.546205300027993</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.688549946502877</v>
@@ -29526,7 +29376,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.692867735610032</v>
+        <v>1.537470947753377</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.481458146591266</v>
@@ -29615,7 +29465,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.689233333023006</v>
+        <v>1.538379899523203</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.653403154722733</v>
@@ -29704,7 +29554,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.686682105947902</v>
+        <v>1.53735130653248</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.627612268788345</v>
@@ -29793,7 +29643,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.67892080903534</v>
+        <v>1.534980811425813</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.726778742368371</v>
@@ -29882,7 +29732,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.686658207344331</v>
+        <v>1.549343603268887</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.568986928353945</v>
@@ -30168,7 +30018,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.128381934261474</v>
+        <v>1.130229766164051</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.861661471754752</v>
@@ -30257,7 +30107,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.126083594501014</v>
+        <v>1.128465360471474</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.820174560567118</v>
@@ -30346,7 +30196,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.126577584475336</v>
+        <v>1.127897769676571</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.832903431364602</v>
@@ -30435,7 +30285,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.12899904016023</v>
+        <v>1.129843510150057</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.87606049563902</v>
@@ -30524,7 +30374,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.13663281061533</v>
+        <v>1.13664815502593</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.79983778332868</v>
@@ -30613,7 +30463,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.146216560636358</v>
+        <v>1.145771030011817</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.800602068785989</v>
@@ -30702,7 +30552,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.172402389411379</v>
+        <v>1.17410383214785</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.775036303149149</v>
@@ -30791,7 +30641,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.211066014924209</v>
+        <v>1.204954630798925</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.629970865746332</v>
@@ -30880,7 +30730,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.231464661327264</v>
+        <v>1.232714540885341</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.636262884864867</v>
@@ -30969,7 +30819,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.251909295698289</v>
+        <v>1.248949938139991</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.570845655128814</v>
@@ -31058,7 +30908,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.368987060976106</v>
+        <v>1.351536444719074</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.947118918709993</v>
@@ -31147,7 +30997,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.395394265316605</v>
+        <v>1.373724792959707</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.548745711061267</v>
@@ -31236,7 +31086,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.398021118153294</v>
+        <v>1.371345940223112</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.508799810053476</v>
@@ -31325,7 +31175,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.388728261354185</v>
+        <v>1.359977794315365</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.456394133105431</v>
@@ -31414,7 +31264,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.393170126195201</v>
+        <v>1.365017516631045</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.731221822451749</v>
@@ -31503,7 +31353,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.401907264004095</v>
+        <v>1.370286393821268</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.47733970152595</v>
@@ -31592,7 +31442,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.409507360311192</v>
+        <v>1.372031036384878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.639404682514921</v>
@@ -31681,7 +31531,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.40592258426308</v>
+        <v>1.37576965299414</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.660760235805349</v>
@@ -31770,7 +31620,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.410986721588304</v>
+        <v>1.380434848548251</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.936153299612948</v>
@@ -31859,7 +31709,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.415745537207886</v>
+        <v>1.386203750158701</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.375823660405927</v>
@@ -31948,7 +31798,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.414675609828937</v>
+        <v>1.391610611687736</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.867645902659394</v>
@@ -32037,7 +31887,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.41652920041794</v>
+        <v>1.397483406108587</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.673125323789319</v>
@@ -32126,7 +31976,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.420810942096674</v>
+        <v>1.401177817641998</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.513198401559005</v>
@@ -32215,7 +32065,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.419438706528177</v>
+        <v>1.401252586000119</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.939510693876344</v>
@@ -32304,7 +32154,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.42703429534492</v>
+        <v>1.410228788370835</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.888311341895599</v>
@@ -32393,7 +32243,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.428769207099024</v>
+        <v>1.411666836699246</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.975061080938444</v>
@@ -32482,7 +32332,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.430407984503621</v>
+        <v>1.412846972442266</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.715851098839513</v>
@@ -32571,7 +32421,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.439716273321794</v>
+        <v>1.423234672990507</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.047101360145064</v>
@@ -32660,7 +32510,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.455870040348598</v>
+        <v>1.438010754161736</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.023496440160661</v>
@@ -32749,7 +32599,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.453334430165292</v>
+        <v>1.424062949676734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.771104675088664</v>
@@ -32838,7 +32688,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454355328966959</v>
+        <v>1.422296622442399</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.680160520304394</v>
@@ -32927,7 +32777,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.457344986664853</v>
+        <v>1.424781123931075</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.805532359686607</v>
@@ -33016,7 +32866,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.468334181699614</v>
+        <v>1.427768681980435</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.040321082025173</v>
@@ -33105,7 +32955,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.47732736388925</v>
+        <v>1.441699523614854</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.710022900432593</v>
@@ -33194,7 +33044,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.473167166193468</v>
+        <v>1.435116560091344</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.564526556995471</v>
@@ -33283,7 +33133,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.48275469069275</v>
+        <v>1.44331563320232</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.854228921819126</v>
@@ -33372,7 +33222,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.483498840178569</v>
+        <v>1.441645351582309</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.916087657760215</v>
@@ -33461,7 +33311,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.487226948459087</v>
+        <v>1.439870854692171</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.633166692626457</v>
@@ -33550,7 +33400,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.490692675665561</v>
+        <v>1.440847573656491</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.92048601033683</v>
@@ -33639,7 +33489,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.487270555871772</v>
+        <v>1.442921166205564</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.95979945664042</v>
@@ -33728,7 +33578,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494129314114225</v>
+        <v>1.44918232182291</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.706345109602221</v>
@@ -33817,7 +33667,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.497684630289496</v>
+        <v>1.450792045549061</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.006145866236947</v>
@@ -33906,7 +33756,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.489966787145447</v>
+        <v>1.451137578974127</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.824089277559668</v>
@@ -33995,7 +33845,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.480102741902486</v>
+        <v>1.447331085382612</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.760315492541204</v>
@@ -34084,7 +33934,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.473627881462636</v>
+        <v>1.445119468446921</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.616424626876331</v>
@@ -34173,7 +34023,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.468561303512881</v>
+        <v>1.441814961273748</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.073443755644414</v>
@@ -34262,7 +34112,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.464673934470681</v>
+        <v>1.442858427586409</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.878061266335751</v>
@@ -34351,7 +34201,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.461191039448612</v>
+        <v>1.440471985921852</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.714038348003023</v>
@@ -34440,7 +34290,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456522401566105</v>
+        <v>1.432749529737896</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.779494451940809</v>
@@ -34529,7 +34379,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.469614016532637</v>
+        <v>1.441954324531793</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.998203704795309</v>
@@ -34618,7 +34468,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.46941418719087</v>
+        <v>1.436850635492871</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.744878753703107</v>
@@ -34707,7 +34557,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.480986229319954</v>
+        <v>1.449845064900416</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.073050513786084</v>
@@ -34796,7 +34646,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.475456097817569</v>
+        <v>1.449755757285679</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.924754549122874</v>
@@ -34885,7 +34735,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.477317279077836</v>
+        <v>1.451001413427492</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.742318374803234</v>
@@ -34974,7 +34824,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.481042244825354</v>
+        <v>1.450265643188616</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.8867102458517</v>
@@ -35063,7 +34913,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.478498431252758</v>
+        <v>1.446074302646641</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.064502748285514</v>
@@ -35152,7 +35002,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.467549406501498</v>
+        <v>1.435998804294527</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.725593595152346</v>
@@ -35241,7 +35091,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.464195107307107</v>
+        <v>1.422095142413703</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.765787365664205</v>
@@ -35330,7 +35180,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.463316348495978</v>
+        <v>1.423504723790629</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.88440788723531</v>
@@ -35419,7 +35269,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.469431351995973</v>
+        <v>1.428854879927208</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.98966297346507</v>
@@ -35508,7 +35358,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.479344275952607</v>
+        <v>1.430576383305513</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.656121694630252</v>
@@ -35597,7 +35447,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.488166625344449</v>
+        <v>1.442103959644813</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.032097447583058</v>
@@ -35686,7 +35536,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.493160550267004</v>
+        <v>1.443099732131953</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.149003096028708</v>
@@ -35775,7 +35625,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.493274714636798</v>
+        <v>1.44311792572826</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.206776010891562</v>
@@ -35864,7 +35714,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.487337261894858</v>
+        <v>1.434826318660003</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.234947064080957</v>
@@ -35953,7 +35803,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.489976298525274</v>
+        <v>1.438334041744509</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.227253033965964</v>
@@ -36042,7 +35892,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.482883206672944</v>
+        <v>1.430327369991745</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.894612912442354</v>
@@ -36131,7 +35981,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.47967256534501</v>
+        <v>1.428471874784062</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.238996577259881</v>
@@ -36417,7 +36267,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.287354316472656</v>
+        <v>1.279682595181586</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.38054875390007</v>
@@ -36506,7 +36356,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.285951488101611</v>
+        <v>1.282146042323069</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.210745641376818</v>
@@ -36595,7 +36445,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.303576027125796</v>
+        <v>1.296444346026808</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.277133847755987</v>
@@ -36684,7 +36534,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.306614821459481</v>
+        <v>1.296694707041403</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.290679747209908</v>
@@ -36773,7 +36623,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.317081197005005</v>
+        <v>1.307025083146867</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.174275598965008</v>
@@ -36862,7 +36712,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.341052257128992</v>
+        <v>1.32895329795426</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.405158820717866</v>
@@ -36951,7 +36801,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.36990833753667</v>
+        <v>1.353401509378678</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.154071789834152</v>
@@ -37040,7 +36890,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.39108746426524</v>
+        <v>1.372385780345262</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.32059997566704</v>
@@ -37129,7 +36979,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.401637727106277</v>
+        <v>1.38181135894955</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.385427493842087</v>
@@ -37218,7 +37068,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.415106869828319</v>
+        <v>1.393232061058948</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.306512141858552</v>
@@ -37307,7 +37157,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.450153418920538</v>
+        <v>1.418607047276817</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.435785970231863</v>
@@ -37396,7 +37246,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.478221760792845</v>
+        <v>1.439708625142452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.326939133677079</v>
@@ -37485,7 +37335,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.47209031076505</v>
+        <v>1.434706322490437</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.28903406386361</v>
@@ -37574,7 +37424,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.460755424457881</v>
+        <v>1.426026849254336</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.237655903883984</v>
@@ -37663,7 +37513,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498101227817218</v>
+        <v>1.459193565296547</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.102701966779181</v>
@@ -37752,7 +37602,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.485726661234318</v>
+        <v>1.447502193824687</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.40239803104051</v>
@@ -37841,7 +37691,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.488866614590361</v>
+        <v>1.438388040847222</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.264165816706661</v>
@@ -37930,7 +37780,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.498000762778705</v>
+        <v>1.45007214938257</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.263580052145853</v>
@@ -38019,7 +37869,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.522228707452601</v>
+        <v>1.465029821844919</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.282379962399355</v>
@@ -38108,7 +37958,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.542734647442865</v>
+        <v>1.481878209482946</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.322697562236868</v>
@@ -38197,7 +38047,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.554855892387799</v>
+        <v>1.499896637684638</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.397896904168975</v>
@@ -38286,7 +38136,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.560192817797862</v>
+        <v>1.508098062784701</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.504447605607326</v>
@@ -38375,7 +38225,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542385013446725</v>
+        <v>1.489154107244136</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.408589027672765</v>
@@ -38464,7 +38314,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.549493511426966</v>
+        <v>1.496894179639728</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.316375956372375</v>
@@ -38553,7 +38403,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.547596052076941</v>
+        <v>1.492782081195284</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.502734626578304</v>
@@ -38642,7 +38492,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552012279479094</v>
+        <v>1.487018087356303</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.271824643996915</v>
@@ -38731,7 +38581,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.554135631112318</v>
+        <v>1.49117728907406</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.418623274661117</v>
@@ -38820,7 +38670,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547832409988792</v>
+        <v>1.487736838557517</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.421253693828477</v>
@@ -38909,7 +38759,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566434400110433</v>
+        <v>1.50601371039603</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.259158870687311</v>
@@ -38998,7 +38848,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.567883452090889</v>
+        <v>1.49658747748907</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.251905867779668</v>
@@ -39087,7 +38937,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583774512501997</v>
+        <v>1.507368535398993</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.387173890546347</v>
@@ -39176,7 +39026,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594349675076833</v>
+        <v>1.516310363653302</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.274236786356687</v>
@@ -39265,7 +39115,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.586255219195712</v>
+        <v>1.503347723609022</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.361979357426852</v>
@@ -39354,7 +39204,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.581957943092081</v>
+        <v>1.504700343044627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.465208306737485</v>
@@ -39443,7 +39293,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.563141188338616</v>
+        <v>1.47957719195339</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.498260139021463</v>
@@ -39532,7 +39382,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55347651742059</v>
+        <v>1.464766204344293</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.31827082288985</v>
@@ -39621,7 +39471,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.547137539989681</v>
+        <v>1.456434623302943</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.548521001991378</v>
@@ -39710,7 +39560,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.553311479210674</v>
+        <v>1.453951593470984</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.681688012682418</v>
@@ -39799,7 +39649,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536221288896465</v>
+        <v>1.433067729871759</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.353515307401899</v>
@@ -39888,7 +39738,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.523743349365452</v>
+        <v>1.428930559205451</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.563090136211225</v>
@@ -39977,7 +39827,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499056094111702</v>
+        <v>1.41264203811461</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.585245848937257</v>
@@ -40066,7 +39916,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.484786920768841</v>
+        <v>1.39923215919999</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.407289662302706</v>
@@ -40155,7 +40005,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.468980478064135</v>
+        <v>1.382958387702011</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.45171850605257</v>
@@ -40244,7 +40094,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.462133008135765</v>
+        <v>1.379311573591903</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.466173555086058</v>
@@ -40333,7 +40183,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.452932943470937</v>
+        <v>1.379982065594886</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.497834078178972</v>
@@ -40422,7 +40272,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.441430803916888</v>
+        <v>1.368996405031994</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.48273305758608</v>
@@ -40511,7 +40361,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.447665473450621</v>
+        <v>1.374082589051492</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.525269763075407</v>
@@ -40600,7 +40450,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.456962170905839</v>
+        <v>1.390047171920081</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.463297254880835</v>
@@ -40689,7 +40539,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.450459835236528</v>
+        <v>1.386227955587958</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.492473045820669</v>
@@ -40778,7 +40628,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.466270009796234</v>
+        <v>1.399461399596797</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.604653496020148</v>
@@ -40867,7 +40717,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.466332516829673</v>
+        <v>1.399767510873259</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.651243122152152</v>
@@ -40956,7 +40806,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.488749571069006</v>
+        <v>1.416250196005661</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.570160847690829</v>
@@ -41045,7 +40895,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.486535661455527</v>
+        <v>1.418801880430295</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.539902364363962</v>
@@ -41134,7 +40984,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.505456817964718</v>
+        <v>1.438976562731968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.256263039404276</v>
@@ -41223,7 +41073,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507187021333662</v>
+        <v>1.441698073079063</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.409929954546874</v>
@@ -41312,7 +41162,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.539475756818123</v>
+        <v>1.472901840162423</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.471391827062109</v>
@@ -41401,7 +41251,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545121986887623</v>
+        <v>1.479790834800894</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.365632300340919</v>
@@ -41490,7 +41340,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546106358668683</v>
+        <v>1.473882245897383</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.505851731918394</v>
@@ -41579,7 +41429,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.512784632167319</v>
+        <v>1.442696719427137</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.436442606144996</v>
@@ -41668,7 +41518,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.52496992155256</v>
+        <v>1.449843232589727</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.518139670133749</v>
@@ -41757,7 +41607,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.547133580910471</v>
+        <v>1.472385567147871</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.498431640024744</v>
@@ -41846,7 +41696,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.547208535117315</v>
+        <v>1.468996803524463</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.821676117618167</v>
@@ -41935,7 +41785,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.541765298147406</v>
+        <v>1.449587423360588</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.830425397134734</v>
@@ -42024,7 +41874,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.549633958087607</v>
+        <v>1.451880479624797</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.765308293583226</v>
@@ -42113,7 +41963,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.532945045949319</v>
+        <v>1.441458222694218</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.600062042962407</v>
@@ -42202,7 +42052,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.535282498137726</v>
+        <v>1.439114005794224</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.807055788000727</v>
@@ -42291,7 +42141,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.526050589161403</v>
+        <v>1.431677153452328</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.659741581428121</v>
@@ -42380,7 +42230,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.530058033164088</v>
+        <v>1.438110223662631</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.695251706795133</v>
